--- a/syseng_hwco/proj/Artifact/Doc/Pareto analyse graph.xlsx
+++ b/syseng_hwco/proj/Artifact/Doc/Pareto analyse graph.xlsx
@@ -16,34 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
-  <si>
-    <t>FPGA</t>
-  </si>
-  <si>
-    <t>ASCIC</t>
-  </si>
-  <si>
-    <t>MIPS</t>
-  </si>
-  <si>
-    <t>DSP</t>
-  </si>
-  <si>
-    <t>Component</t>
-  </si>
-  <si>
-    <t>5 ms</t>
-  </si>
-  <si>
-    <t>1ms</t>
-  </si>
-  <si>
-    <t>2ms</t>
-  </si>
-  <si>
-    <t>7ms</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Cost $</t>
   </si>
@@ -51,16 +24,46 @@
     <t>Audio</t>
   </si>
   <si>
-    <t>ISM</t>
-  </si>
-  <si>
     <t>Communication</t>
   </si>
   <si>
-    <t>Execution time of blocks</t>
-  </si>
-  <si>
     <t>Pareto analyse Emergency call button</t>
+  </si>
+  <si>
+    <t>The load can be calculated as: Load(PE) = fs * Sum (ops/sample) / fpe</t>
+  </si>
+  <si>
+    <t>CC430 MHz</t>
+  </si>
+  <si>
+    <t>fs Khz</t>
+  </si>
+  <si>
+    <t>CC430 opration/sample</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>2. DSP, Microcontroller and ISM transceiver ASIC.</t>
+  </si>
+  <si>
+    <t>3. FPGA, ADC/DAC and ISM oscillator and LNA receiver filter.</t>
+  </si>
+  <si>
+    <t>1. Microcontroller and ISM transceiver ASIC (CC430)</t>
+  </si>
+  <si>
+    <t>Process one sample 1.</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>Execution Clocks/s</t>
+  </si>
+  <si>
+    <t>200+177</t>
   </si>
 </sst>
 </file>
@@ -106,7 +109,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -140,19 +143,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color theme="3"/>
-      </right>
-      <top style="medium">
-        <color theme="3"/>
-      </top>
-      <bottom style="medium">
-        <color theme="3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="medium">
@@ -164,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -177,25 +167,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -205,146 +201,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="da-DK"/>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.15745931758530185"/>
-          <c:y val="0.10695610965296004"/>
-          <c:w val="0.68055468066491687"/>
-          <c:h val="0.65482210557013709"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Ark1'!$C$6:$D$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Audio ISM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Ark1'!$E$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Ark1'!$E$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="44099072"/>
-        <c:axId val="44097536"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="44099072"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44097536"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="44097536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44099072"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagram 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -632,140 +488,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:L16"/>
+  <dimension ref="A2:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="18.75">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1">
+      <c r="G5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1">
-      <c r="C5" s="12" t="s">
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="F6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="F7" s="1">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="G7" s="1">
+        <v>379</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="F8" s="1">
+        <v>10.97</v>
+      </c>
+      <c r="G8" s="1">
+        <v>329</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>55</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="F9" s="1">
+        <v>1295</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="A10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="18.75">
+      <c r="A17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
         <v>8</v>
       </c>
-      <c r="D10" s="1" t="s">
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="1"/>
+      <c r="C25">
+        <f>C21*(C23/C22)</f>
+        <v>0.15160000000000001</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="8">
     <mergeCell ref="J8:L8"/>
-    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/syseng_hwco/proj/Artifact/Doc/Pareto analyse graph.xlsx
+++ b/syseng_hwco/proj/Artifact/Doc/Pareto analyse graph.xlsx
@@ -16,17 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Cost $</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Audio</t>
   </si>
   <si>
-    <t>Communication</t>
-  </si>
-  <si>
     <t>Pareto analyse Emergency call button</t>
   </si>
   <si>
@@ -45,25 +39,34 @@
     <t>total</t>
   </si>
   <si>
-    <t>2. DSP, Microcontroller and ISM transceiver ASIC.</t>
-  </si>
-  <si>
     <t>3. FPGA, ADC/DAC and ISM oscillator and LNA receiver filter.</t>
   </si>
   <si>
     <t>1. Microcontroller and ISM transceiver ASIC (CC430)</t>
   </si>
   <si>
-    <t>Process one sample 1.</t>
-  </si>
-  <si>
     <t>Architecture</t>
   </si>
   <si>
     <t>Execution Clocks/s</t>
   </si>
   <si>
-    <t>200+177</t>
+    <t>1. Mapping</t>
+  </si>
+  <si>
+    <t>2. Mapping</t>
+  </si>
+  <si>
+    <t>TMS320VC5401 MHz</t>
+  </si>
+  <si>
+    <t>TMS320VC5401 opration/sample</t>
+  </si>
+  <si>
+    <t>2. DSP, Microcontroller and ISM transceiver ASIC. (TMS320VC5401)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost </t>
   </si>
 </sst>
 </file>
@@ -95,21 +98,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -117,67 +114,28 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color theme="3"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="3"/>
-      </top>
-      <bottom style="medium">
-        <color theme="3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="3"/>
-      </top>
-      <bottom style="medium">
-        <color theme="3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="3"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -191,9 +149,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -201,6 +156,174 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="da-DK"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13726618547681541"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.73302690288713912"/>
+          <c:h val="0.79822506561679785"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CC430</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.15160000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18.149999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>TMS320VC5401</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.2639999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="84689664"/>
+        <c:axId val="84638336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="84689664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84638336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="84638336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84689664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Diagram 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -488,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:L25"/>
+  <dimension ref="A2:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -506,128 +629,128 @@
   <sheetData>
     <row r="2" spans="1:12" ht="18.75">
       <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1">
-      <c r="G5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="14"/>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="F7" s="1">
+      <c r="A7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="F7">
+        <f>C25</f>
+        <v>0.15160000000000001</v>
+      </c>
+      <c r="G7">
         <v>18.149999999999999</v>
       </c>
-      <c r="G7" s="1">
-        <v>379</v>
-      </c>
-      <c r="H7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="F8" s="1">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="F8">
+        <f>C36</f>
+        <v>5.2639999999999999E-2</v>
+      </c>
+      <c r="G8">
         <v>10.97</v>
       </c>
-      <c r="G8" s="1">
-        <v>329</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="F9" s="1">
+      <c r="A9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="G9">
         <v>1295</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1"/>
-      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
+    <row r="12" spans="1:12">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="C13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
     <row r="17" spans="1:6" ht="18.75">
-      <c r="A17" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
+      <c r="A17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="7" t="s">
         <v>4</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="10" t="s">
-        <v>6</v>
       </c>
       <c r="C21">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="10" t="s">
-        <v>5</v>
+      <c r="A22" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="C22">
         <v>20000</v>
@@ -635,7 +758,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23">
         <v>379</v>
@@ -643,26 +766,76 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <f>C21*(C23/C22)</f>
         <v>0.15160000000000001</v>
       </c>
     </row>
+    <row r="28" spans="1:6" ht="18.75">
+      <c r="A28" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <f>C32*(C34/C33)</f>
+        <v>5.2639999999999999E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="G5:I5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:F29"/>
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A17:C17"/>
-    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/syseng_hwco/proj/Artifact/Doc/Pareto analyse graph.xlsx
+++ b/syseng_hwco/proj/Artifact/Doc/Pareto analyse graph.xlsx
@@ -140,13 +140,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -168,7 +168,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13726618547681541"/>
+          <c:x val="0.13726618547681543"/>
           <c:y val="5.1400554097404488E-2"/>
           <c:w val="0.73302690288713912"/>
           <c:h val="0.79822506561679785"/>
@@ -248,23 +248,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="84689664"/>
-        <c:axId val="84638336"/>
+        <c:axId val="70868992"/>
+        <c:axId val="70870528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84689664"/>
+        <c:axId val="70868992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84638336"/>
+        <c:crossAx val="70870528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84638336"/>
+        <c:axId val="70870528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -272,7 +272,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84689664"/>
+        <c:crossAx val="70868992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -285,7 +285,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -614,7 +614,7 @@
   <dimension ref="A2:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -657,12 +657,12 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
       <c r="F7">
         <f>C25</f>
         <v>0.15160000000000001</v>
@@ -672,12 +672,12 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
       <c r="F8">
         <f>C36</f>
         <v>5.2639999999999999E-2</v>
@@ -690,12 +690,12 @@
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
       <c r="G9">
         <v>1295</v>
       </c>
@@ -724,21 +724,21 @@
       <c r="F14" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="18.75">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="7" t="s">
@@ -774,21 +774,21 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="18.75">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="8" t="s">

--- a/syseng_hwco/proj/Artifact/Doc/Pareto analyse graph.xlsx
+++ b/syseng_hwco/proj/Artifact/Doc/Pareto analyse graph.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
-  <si>
-    <t>Audio</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Pareto analyse Emergency call button</t>
   </si>
@@ -27,9 +24,6 @@
     <t>The load can be calculated as: Load(PE) = fs * Sum (ops/sample) / fpe</t>
   </si>
   <si>
-    <t>CC430 MHz</t>
-  </si>
-  <si>
     <t>fs Khz</t>
   </si>
   <si>
@@ -39,34 +33,52 @@
     <t>total</t>
   </si>
   <si>
-    <t>3. FPGA, ADC/DAC and ISM oscillator and LNA receiver filter.</t>
-  </si>
-  <si>
     <t>1. Microcontroller and ISM transceiver ASIC (CC430)</t>
   </si>
   <si>
     <t>Architecture</t>
   </si>
   <si>
-    <t>Execution Clocks/s</t>
-  </si>
-  <si>
     <t>1. Mapping</t>
   </si>
   <si>
     <t>2. Mapping</t>
   </si>
   <si>
-    <t>TMS320VC5401 MHz</t>
-  </si>
-  <si>
-    <t>TMS320VC5401 opration/sample</t>
-  </si>
-  <si>
     <t>2. DSP, Microcontroller and ISM transceiver ASIC. (TMS320VC5401)</t>
   </si>
   <si>
     <t xml:space="preserve">Cost </t>
+  </si>
+  <si>
+    <t>Execution Time</t>
+  </si>
+  <si>
+    <t>3. Microcontroller and ISM transceiver ASIC (PIC16F1516)</t>
+  </si>
+  <si>
+    <t>4. FPGA, ADC/DAC and ISM oscillator and LNA receiver filter.</t>
+  </si>
+  <si>
+    <t>3. Mapping</t>
+  </si>
+  <si>
+    <t>PIC16F1516 opration/sample</t>
+  </si>
+  <si>
+    <t>PIC16F1516 kHz</t>
+  </si>
+  <si>
+    <t>TMS320VC5401 kHz</t>
+  </si>
+  <si>
+    <t>CC430 kHz</t>
+  </si>
+  <si>
+    <t>TMS320VC5401 opration/sample k</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -123,22 +135,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -148,6 +152,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -162,18 +178,31 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="da-DK"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK"/>
+              <a:t>Pareto</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="da-DK" baseline="0"/>
+              <a:t> points</a:t>
+            </a:r>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.13726618547681543"/>
-          <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.73302690288713912"/>
-          <c:h val="0.79822506561679785"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:ser>
@@ -189,7 +218,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ark1'!$F$7</c:f>
+              <c:f>'Ark1'!$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -201,7 +230,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ark1'!$G$7</c:f>
+              <c:f>'Ark1'!$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -225,7 +254,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ark1'!$F$8</c:f>
+              <c:f>'Ark1'!$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -237,7 +266,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ark1'!$G$8</c:f>
+              <c:f>'Ark1'!$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -248,6 +277,45 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>PIC16F1516</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.60640000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="r"/>
+        </c:dLbls>
         <c:axId val="70868992"/>
         <c:axId val="70870528"/>
       </c:scatterChart>
@@ -257,7 +325,26 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Execution time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="70870528"/>
         <c:crosses val="autoZero"/>
@@ -270,12 +357,40 @@
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Cost</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="70868992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="28000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -285,9 +400,10 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -295,16 +411,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -323,7 +439,191 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1019176</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>96838</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Lige pilforbindelse 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4295776" y="4238625"/>
+          <a:ext cx="1952625" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:tint val="66000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:tint val="44500"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:tint val="23500"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.375</cdr:x>
+      <cdr:y>0.58282</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.66667</cdr:x>
+      <cdr:y>0.66258</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Tekstboks 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1714500" y="1809751"/>
+          <a:ext cx="1333500" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="da-DK" sz="1100"/>
+            <a:t>Better</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.19007</cdr:x>
+      <cdr:y>0.24366</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.2504</cdr:x>
+      <cdr:y>0.43163</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="Rektangel 3"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="869315" y="758641"/>
+          <a:ext cx="275926" cy="585268"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="15875">
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:tint val="66000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:tint val="44500"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:tint val="23500"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -611,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:L36"/>
+  <dimension ref="A2:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -628,210 +928,245 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="18.75">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="F5">
+        <f>C16</f>
+        <v>0.15160000000000001</v>
+      </c>
+      <c r="G5">
+        <v>18.149999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="F6">
+        <f>C21</f>
+        <v>5.2639999999999999E-2</v>
+      </c>
+      <c r="G6">
+        <v>10.97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <f>C26</f>
+        <v>0.60640000000000005</v>
+      </c>
+      <c r="G7">
+        <v>10.97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>1295</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="F7">
-        <f>C25</f>
-        <v>0.15160000000000001</v>
-      </c>
-      <c r="G7">
-        <v>18.149999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="F8">
-        <f>C36</f>
-        <v>5.2639999999999999E-2</v>
-      </c>
-      <c r="G8">
-        <v>10.97</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="G9">
-        <v>1295</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="12" spans="1:12">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+    <row r="11" spans="1:12">
+      <c r="C11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" ht="18.75">
+      <c r="A12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
       <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="C13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="A13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="A14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <f>C13*(C15/C14)</f>
+        <v>0.15160000000000001</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="18.75">
-      <c r="A17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
+      <c r="A17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="C18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>329</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="7" t="s">
+      <c r="A21" t="s">
         <v>4</v>
       </c>
       <c r="C21">
+        <f>C18*(C20/C19)</f>
+        <v>5.2639999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18.75">
+      <c r="A22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <v>379</v>
+    <row r="24" spans="1:6">
+      <c r="A24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>5000</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C25">
-        <f>C21*(C23/C22)</f>
-        <v>0.15160000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="18.75">
-      <c r="A28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <f>C23*(C25/C24)</f>
+        <v>0.60640000000000005</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36">
-        <f>C32*(C34/C33)</f>
-        <v>5.2639999999999999E-2</v>
-      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="40" spans="4:6">
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A17:C17"/>
+  <mergeCells count="1">
+    <mergeCell ref="C2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/syseng_hwco/proj/Artifact/Doc/Pareto analyse graph.xlsx
+++ b/syseng_hwco/proj/Artifact/Doc/Pareto analyse graph.xlsx
@@ -178,29 +178,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="da-DK"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="da-DK"/>
-              <a:t>Pareto</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="da-DK" baseline="0"/>
-              <a:t> points</a:t>
-            </a:r>
-            <a:endParaRPr lang="da-DK"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -313,14 +291,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="r"/>
-        </c:dLbls>
-        <c:axId val="70868992"/>
-        <c:axId val="70870528"/>
+        <c:axId val="70904064"/>
+        <c:axId val="71246208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70868992"/>
+        <c:axId val="70904064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -346,12 +321,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70870528"/>
+        <c:crossAx val="71246208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70870528"/>
+        <c:axId val="71246208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -378,7 +353,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70868992"/>
+        <c:crossAx val="70904064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -400,7 +375,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -412,13 +387,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>266699</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>923925</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>487589</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
@@ -439,76 +414,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1019176</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>96838</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Lige pilforbindelse 3"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="4295776" y="4238625"/>
-          <a:ext cx="1952625" cy="1588"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:gradFill>
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:tint val="66000"/>
-                  <a:satMod val="160000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="accent1">
-                  <a:tint val="44500"/>
-                  <a:satMod val="160000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:tint val="23500"/>
-                  <a:satMod val="160000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -516,47 +421,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.375</cdr:x>
-      <cdr:y>0.58282</cdr:y>
+      <cdr:x>0.16984</cdr:x>
+      <cdr:y>0.13108</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.66667</cdr:x>
-      <cdr:y>0.66258</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="Tekstboks 1"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1714500" y="1809751"/>
-          <a:ext cx="1333500" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="da-DK" sz="1100"/>
-            <a:t>Better</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.19007</cdr:x>
-      <cdr:y>0.24366</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.2504</cdr:x>
-      <cdr:y>0.43163</cdr:y>
+      <cdr:x>0.25536</cdr:x>
+      <cdr:y>0.36434</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -565,8 +435,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="869315" y="758641"/>
-          <a:ext cx="275926" cy="585268"/>
+          <a:off x="980210" y="408710"/>
+          <a:ext cx="493568" cy="727363"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -913,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/syseng_hwco/proj/Artifact/Doc/Pareto analyse graph.xlsx
+++ b/syseng_hwco/proj/Artifact/Doc/Pareto analyse graph.xlsx
@@ -249,7 +249,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10.97</c:v>
+                  <c:v>23.57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -291,11 +291,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="70904064"/>
-        <c:axId val="71246208"/>
+        <c:axId val="71033600"/>
+        <c:axId val="71035904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70904064"/>
+        <c:axId val="71033600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -321,12 +321,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71246208"/>
+        <c:crossAx val="71035904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71246208"/>
+        <c:axId val="71035904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -353,7 +353,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70904064"/>
+        <c:crossAx val="71033600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -375,10 +375,9 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -415,85 +414,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.16984</cdr:x>
-      <cdr:y>0.13108</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.25536</cdr:x>
-      <cdr:y>0.36434</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="4" name="Rektangel 3"/>
-        <cdr:cNvSpPr/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="980210" y="408710"/>
-          <a:ext cx="493568" cy="727363"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="15875">
-          <a:gradFill>
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:tint val="66000"/>
-                  <a:satMod val="160000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="accent1">
-                  <a:tint val="44500"/>
-                  <a:satMod val="160000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:tint val="23500"/>
-                  <a:satMod val="160000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
-        </a:ln>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </cdr:style>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="da-DK"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -783,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -847,7 +767,7 @@
         <v>5.2639999999999999E-2</v>
       </c>
       <c r="G6">
-        <v>10.97</v>
+        <v>23.57</v>
       </c>
     </row>
     <row r="7" spans="1:12">
